--- a/raw data used/live births/middle.xlsx
+++ b/raw data used/live births/middle.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phillipssalawu/Desktop/Test_repo/raw data used/live births/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E2183CC1-12EE-4342-9E52-A2FC7B30A92B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FE086248-F739-E249-8977-43663244D88B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="middle" sheetId="7" r:id="rId1"/>
@@ -2510,9 +2510,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="52">
     <font>
@@ -3520,19 +3520,19 @@
     <xf numFmtId="0" fontId="26" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="58" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3673,160 +3673,160 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="130" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="154">
-    <cellStyle name="20% - Accent1 2" xfId="1"/>
-    <cellStyle name="20% - Accent1 2 2" xfId="2"/>
-    <cellStyle name="20% - Accent1 2 3" xfId="3"/>
-    <cellStyle name="20% - Accent2 2" xfId="4"/>
-    <cellStyle name="20% - Accent2 2 2" xfId="5"/>
-    <cellStyle name="20% - Accent2 2 3" xfId="6"/>
-    <cellStyle name="20% - Accent3 2" xfId="7"/>
-    <cellStyle name="20% - Accent3 2 2" xfId="8"/>
-    <cellStyle name="20% - Accent3 2 3" xfId="9"/>
-    <cellStyle name="20% - Accent4 2" xfId="10"/>
-    <cellStyle name="20% - Accent4 2 2" xfId="11"/>
-    <cellStyle name="20% - Accent4 2 3" xfId="12"/>
-    <cellStyle name="20% - Accent5 2" xfId="13"/>
-    <cellStyle name="20% - Accent5 2 2" xfId="14"/>
-    <cellStyle name="20% - Accent5 2 3" xfId="15"/>
-    <cellStyle name="20% - Accent6 2" xfId="16"/>
-    <cellStyle name="20% - Accent6 2 2" xfId="17"/>
-    <cellStyle name="20% - Accent6 2 3" xfId="18"/>
-    <cellStyle name="40% - Accent1 2" xfId="19"/>
-    <cellStyle name="40% - Accent1 2 2" xfId="20"/>
-    <cellStyle name="40% - Accent1 2 3" xfId="21"/>
-    <cellStyle name="40% - Accent2 2" xfId="22"/>
-    <cellStyle name="40% - Accent2 2 2" xfId="23"/>
-    <cellStyle name="40% - Accent2 2 3" xfId="24"/>
-    <cellStyle name="40% - Accent3 2" xfId="25"/>
-    <cellStyle name="40% - Accent3 2 2" xfId="26"/>
-    <cellStyle name="40% - Accent3 2 3" xfId="27"/>
-    <cellStyle name="40% - Accent4 2" xfId="28"/>
-    <cellStyle name="40% - Accent4 2 2" xfId="29"/>
-    <cellStyle name="40% - Accent4 2 3" xfId="30"/>
-    <cellStyle name="40% - Accent5 2" xfId="31"/>
-    <cellStyle name="40% - Accent5 2 2" xfId="32"/>
-    <cellStyle name="40% - Accent5 2 3" xfId="33"/>
-    <cellStyle name="40% - Accent6 2" xfId="34"/>
-    <cellStyle name="40% - Accent6 2 2" xfId="35"/>
-    <cellStyle name="40% - Accent6 2 3" xfId="36"/>
-    <cellStyle name="60% - Accent1 2" xfId="37"/>
-    <cellStyle name="60% - Accent1 2 2" xfId="38"/>
-    <cellStyle name="60% - Accent2 2" xfId="39"/>
-    <cellStyle name="60% - Accent2 2 2" xfId="40"/>
-    <cellStyle name="60% - Accent3 2" xfId="41"/>
-    <cellStyle name="60% - Accent3 2 2" xfId="42"/>
-    <cellStyle name="60% - Accent4 2" xfId="43"/>
-    <cellStyle name="60% - Accent4 2 2" xfId="44"/>
-    <cellStyle name="60% - Accent5 2" xfId="45"/>
-    <cellStyle name="60% - Accent5 2 2" xfId="46"/>
-    <cellStyle name="60% - Accent6 2" xfId="47"/>
-    <cellStyle name="60% - Accent6 2 2" xfId="48"/>
-    <cellStyle name="Accent1 2" xfId="49"/>
-    <cellStyle name="Accent1 2 2" xfId="50"/>
-    <cellStyle name="Accent2 2" xfId="51"/>
-    <cellStyle name="Accent2 2 2" xfId="52"/>
-    <cellStyle name="Accent3 2" xfId="53"/>
-    <cellStyle name="Accent3 2 2" xfId="54"/>
-    <cellStyle name="Accent4 2" xfId="55"/>
-    <cellStyle name="Accent4 2 2" xfId="56"/>
-    <cellStyle name="Accent5 2" xfId="57"/>
-    <cellStyle name="Accent5 2 2" xfId="58"/>
-    <cellStyle name="Accent6 2" xfId="59"/>
-    <cellStyle name="Accent6 2 2" xfId="60"/>
-    <cellStyle name="Bad 2" xfId="61"/>
-    <cellStyle name="Bad 2 2" xfId="62"/>
-    <cellStyle name="Calculation 2" xfId="63"/>
-    <cellStyle name="Calculation 2 2" xfId="64"/>
-    <cellStyle name="Check Cell 2" xfId="65"/>
-    <cellStyle name="Check Cell 2 2" xfId="66"/>
+    <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent1 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent1 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent2 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent2 2 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="20% - Accent3 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - Accent3 2 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - Accent4 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% - Accent4 2 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="20% - Accent5 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - Accent5 2 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="20% - Accent6 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="20% - Accent6 2 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="40% - Accent1 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="40% - Accent1 2 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="40% - Accent2 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="40% - Accent2 2 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="40% - Accent3 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="40% - Accent3 2 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="40% - Accent4 2 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="40% - Accent4 2 3" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="40% - Accent5 2 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="40% - Accent5 2 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="40% - Accent6 2 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="40% - Accent6 2 3" xfId="36" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="60% - Accent1 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="60% - Accent2 2 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="60% - Accent3 2 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="60% - Accent4 2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="60% - Accent5 2 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="60% - Accent6 2 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Accent1 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Accent1 2 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Accent2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Accent2 2 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Accent3 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Accent3 2 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Accent4 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Accent4 2 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Accent5 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Accent5 2 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Accent6 2" xfId="59" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Accent6 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Bad 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Bad 2 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Calculation 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Calculation 2 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Check Cell 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Check Cell 2 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
     <cellStyle name="Comma" xfId="67" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="68"/>
-    <cellStyle name="Comma 2 2" xfId="69"/>
-    <cellStyle name="Comma 2 2 2" xfId="70"/>
-    <cellStyle name="Comma 2 3" xfId="71"/>
-    <cellStyle name="Comma 2 4" xfId="72"/>
-    <cellStyle name="Comma 3" xfId="73"/>
-    <cellStyle name="Comma 3 2" xfId="74"/>
-    <cellStyle name="Comma 3 3" xfId="75"/>
-    <cellStyle name="Comma 4" xfId="76"/>
-    <cellStyle name="Comma 4 2" xfId="77"/>
-    <cellStyle name="Comma 4 3" xfId="78"/>
-    <cellStyle name="Comma 5" xfId="79"/>
-    <cellStyle name="Explanatory Text 2" xfId="80"/>
-    <cellStyle name="Explanatory Text 2 2" xfId="81"/>
-    <cellStyle name="Followed Hyperlink 2" xfId="82"/>
-    <cellStyle name="Good 2" xfId="83"/>
-    <cellStyle name="Good 2 2" xfId="84"/>
-    <cellStyle name="Heading 1 2" xfId="85"/>
-    <cellStyle name="Heading 1 2 2" xfId="86"/>
-    <cellStyle name="Heading 2 2" xfId="87"/>
-    <cellStyle name="Heading 2 2 2" xfId="88"/>
-    <cellStyle name="Heading 3 2" xfId="89"/>
-    <cellStyle name="Heading 3 2 2" xfId="90"/>
-    <cellStyle name="Heading 4 2" xfId="91"/>
-    <cellStyle name="Heading 4 2 2" xfId="92"/>
-    <cellStyle name="Hyperlink 2" xfId="93"/>
-    <cellStyle name="Hyperlink 2 2" xfId="94"/>
-    <cellStyle name="Hyperlink 2 2 2" xfId="95"/>
-    <cellStyle name="Hyperlink 2 3" xfId="96"/>
-    <cellStyle name="Hyperlink 3" xfId="97"/>
-    <cellStyle name="Hyperlink 3 2" xfId="98"/>
-    <cellStyle name="Hyperlink 3 3" xfId="99"/>
-    <cellStyle name="Hyperlink 4" xfId="100"/>
-    <cellStyle name="Hyperlink 4 2" xfId="101"/>
-    <cellStyle name="Hyperlink 5" xfId="102"/>
-    <cellStyle name="Hyperlink 5 2" xfId="103"/>
-    <cellStyle name="Hyperlink 6" xfId="104"/>
-    <cellStyle name="Input 2" xfId="105"/>
-    <cellStyle name="Input 2 2" xfId="106"/>
-    <cellStyle name="Linked Cell 2" xfId="107"/>
-    <cellStyle name="Linked Cell 2 2" xfId="108"/>
-    <cellStyle name="Neutral 2" xfId="109"/>
-    <cellStyle name="Neutral 2 2" xfId="110"/>
+    <cellStyle name="Comma 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Comma 2 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Comma 2 2 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Comma 2 3" xfId="71" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Comma 2 4" xfId="72" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Comma 3" xfId="73" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Comma 3 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Comma 3 3" xfId="75" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Comma 4" xfId="76" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Comma 4 2" xfId="77" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Comma 4 3" xfId="78" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Comma 5" xfId="79" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="80" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Explanatory Text 2 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Followed Hyperlink 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Good 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Good 2 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Heading 1 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Heading 1 2 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Heading 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Heading 2 2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Heading 3 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Heading 3 2 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Heading 4 2" xfId="91" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Heading 4 2 2" xfId="92" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Hyperlink 2 2 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Hyperlink 2 3" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Hyperlink 3" xfId="97" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Hyperlink 3 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Hyperlink 3 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Hyperlink 4" xfId="100" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Hyperlink 4 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Hyperlink 5" xfId="102" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Hyperlink 5 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Hyperlink 6" xfId="104" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Input 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Input 2 2" xfId="106" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="107" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Linked Cell 2 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Neutral 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Neutral 2 2" xfId="110" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="111"/>
-    <cellStyle name="Normal 2 2" xfId="112"/>
-    <cellStyle name="Normal 2 2 2" xfId="113"/>
-    <cellStyle name="Normal 2 2 3" xfId="114"/>
-    <cellStyle name="Normal 2 3" xfId="115"/>
-    <cellStyle name="Normal 2 4" xfId="116"/>
-    <cellStyle name="Normal 2 5" xfId="117"/>
-    <cellStyle name="Normal 3" xfId="118"/>
-    <cellStyle name="Normal 3 2" xfId="119"/>
-    <cellStyle name="Normal 3 2 2" xfId="120"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="121"/>
-    <cellStyle name="Normal 3 3" xfId="122"/>
-    <cellStyle name="Normal 3 3 2" xfId="123"/>
-    <cellStyle name="Normal 3 3 3" xfId="124"/>
-    <cellStyle name="Normal 3 4" xfId="125"/>
-    <cellStyle name="Normal 4" xfId="126"/>
-    <cellStyle name="Normal 4 2" xfId="127"/>
-    <cellStyle name="Normal 4 3" xfId="128"/>
-    <cellStyle name="Normal 5" xfId="129"/>
-    <cellStyle name="Normal 5 2" xfId="130"/>
-    <cellStyle name="Normal 5 2 2" xfId="131"/>
-    <cellStyle name="Normal 5 3" xfId="132"/>
-    <cellStyle name="Normal 6" xfId="133"/>
-    <cellStyle name="Normal 7" xfId="134"/>
-    <cellStyle name="Normal 8" xfId="135"/>
-    <cellStyle name="Normal 9" xfId="136"/>
-    <cellStyle name="Note 2" xfId="137"/>
-    <cellStyle name="Note 2 2" xfId="138"/>
-    <cellStyle name="Note 2 3" xfId="139"/>
-    <cellStyle name="Note 3" xfId="140"/>
-    <cellStyle name="Output 2" xfId="141"/>
-    <cellStyle name="Output 2 2" xfId="142"/>
-    <cellStyle name="Percent 2" xfId="143"/>
-    <cellStyle name="Percent 3" xfId="144"/>
-    <cellStyle name="Percent 4" xfId="145"/>
-    <cellStyle name="Title 2" xfId="146"/>
-    <cellStyle name="Title 2 2" xfId="147"/>
-    <cellStyle name="Total 2" xfId="148"/>
-    <cellStyle name="Total 2 2" xfId="149"/>
-    <cellStyle name="Warning Text 2" xfId="150"/>
-    <cellStyle name="Warning Text 2 2" xfId="151"/>
-    <cellStyle name="whole number" xfId="152"/>
-    <cellStyle name="whole number 2" xfId="153"/>
+    <cellStyle name="Normal 2" xfId="111" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 2 2" xfId="112" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="113" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Normal 2 2 3" xfId="114" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Normal 2 3" xfId="115" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Normal 2 4" xfId="116" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Normal 2 5" xfId="117" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Normal 3" xfId="118" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Normal 3 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="121" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Normal 3 3" xfId="122" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="123" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Normal 3 3 3" xfId="124" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Normal 3 4" xfId="125" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Normal 4" xfId="126" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Normal 4 2" xfId="127" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Normal 4 3" xfId="128" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Normal 5" xfId="129" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Normal 5 2" xfId="130" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Normal 5 2 2" xfId="131" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Normal 5 3" xfId="132" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Normal 6" xfId="133" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Normal 7" xfId="134" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Normal 8" xfId="135" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Normal 9" xfId="136" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Note 2" xfId="137" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Note 2 2" xfId="138" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Note 2 3" xfId="139" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Note 3" xfId="140" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Output 2" xfId="141" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Output 2 2" xfId="142" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Percent 2" xfId="143" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Percent 3" xfId="144" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Percent 4" xfId="145" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Title 2" xfId="146" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Title 2 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Total 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Total 2 2" xfId="149" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Warning Text 2" xfId="150" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Warning Text 2 2" xfId="151" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="whole number" xfId="152" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="whole number 2" xfId="153" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4161,11 +4161,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N390"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -4208,7 +4208,7 @@
         <v>2017-04-01</v>
       </c>
       <c r="K1" s="9" t="d">
-        <v>2017-04-01</v>
+        <v>2017-05-01</v>
       </c>
       <c r="L1" s="9" t="d">
         <v>2017-06-01</v>
@@ -21170,7 +21170,7 @@
     <row r="389" spans="1:14" ht="13"/>
     <row r="390" spans="1:14" ht="13"/>
   </sheetData>
-  <autoFilter ref="A1:N1">
+  <autoFilter ref="A1:N1" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N386">
       <sortCondition ref="A1:A386"/>
     </sortState>
@@ -21181,7 +21181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:N57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22274,7 +22274,7 @@
         <v>200</v>
       </c>
       <c r="E57" s="32">
-        <f t="shared" ref="D57:N57" si="4">SUM(E54:E55)</f>
+        <f t="shared" ref="E57:N57" si="4">SUM(E54:E55)</f>
         <v>167</v>
       </c>
       <c r="F57" s="32">
@@ -22320,7 +22320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -22332,6 +22332,42 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<p:Policy xmlns:p="office.server.policy" id="" local="true">
+  <p:Name>ONS Document</p:Name>
+  <p:Description/>
+  <p:Statement/>
+  <p:PolicyItems>
+    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration" staticId="0x01010035E33599CC8D1E47A037F474646B1D58|2057524105" UniqueId="d097a687-1114-45fc-89d8-799351d0ef20">
+      <p:Name>Retention</p:Name>
+      <p:Description>Automatic scheduling of content for processing, and performing a retention action on content that has reached its due date.</p:Description>
+      <p:CustomData>
+        <Schedules nextStageId="2">
+          <Schedule type="Default">
+            <stages>
+              <data stageId="1">
+                <formula id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Formula.BuiltIn">
+                  <number>100</number>
+                  <property>Retention_x0020_Date</property>
+                  <period>years</period>
+                </formula>
+                <action type="action" id="ONS-RetentionAction"/>
+              </data>
+            </stages>
+          </Schedule>
+        </Schedules>
+      </p:CustomData>
+    </p:PolicyItem>
+  </p:PolicyItems>
+</p:Policy>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="a7dd7a64-f5c5-4f30-b8c4-f5626f639d1b" ContentTypeId="0x01010035E33599CC8D1E47A037F474646B1D58" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -22436,49 +22472,13 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<p:Policy xmlns:p="office.server.policy" id="" local="true">
-  <p:Name>ONS Document</p:Name>
-  <p:Description/>
-  <p:Statement/>
-  <p:PolicyItems>
-    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration" staticId="0x01010035E33599CC8D1E47A037F474646B1D58|2057524105" UniqueId="d097a687-1114-45fc-89d8-799351d0ef20">
-      <p:Name>Retention</p:Name>
-      <p:Description>Automatic scheduling of content for processing, and performing a retention action on content that has reached its due date.</p:Description>
-      <p:CustomData>
-        <Schedules nextStageId="2">
-          <Schedule type="Default">
-            <stages>
-              <data stageId="1">
-                <formula id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Formula.BuiltIn">
-                  <number>100</number>
-                  <property>Retention_x0020_Date</property>
-                  <period>years</period>
-                </formula>
-                <action type="action" id="ONS-RetentionAction"/>
-              </data>
-            </stages>
-          </Schedule>
-        </Schedules>
-      </p:CustomData>
-    </p:PolicyItem>
-  </p:PolicyItems>
-</p:Policy>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation/>
-  <cached>True</cached>
-  <openByDefault>True</openByDefault>
-  <xsnScope/>
-</customXsn>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22704,20 +22704,36 @@
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item7.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="a7dd7a64-f5c5-4f30-b8c4-f5626f639d1b" ContentTypeId="0x01010035E33599CC8D1E47A037F474646B1D58" PreviousValue="false"/>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation/>
+  <cached>True</cached>
+  <openByDefault>True</openByDefault>
+  <xsnScope/>
+</customXsn>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{0D078103-E8BA-43A4-AEA0-294A40F2CFD7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="office.server.policy"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{191F029C-76A2-4D79-858D-DE5B0003CA59}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{2150FF6C-69A8-4996-90A6-C965DFE7F195}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
@@ -22725,26 +22741,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{0D078103-E8BA-43A4-AEA0-294A40F2CFD7}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{00A62647-443C-40B1-8566-B0BAC7E8BDD0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="office.server.policy"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{FE57AB07-7FBB-447C-9E21-6C5D8F647454}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{0B4AF30D-1AF0-4AF8-8226-8C95168C50CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22771,17 +22771,17 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{00A62647-443C-40B1-8566-B0BAC7E8BDD0}">
+<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{0B4AF30D-1AF0-4AF8-8226-8C95168C50CA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps7.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{191F029C-76A2-4D79-858D-DE5B0003CA59}">
+<ds:datastoreItem xmlns:ds="http://purl.oclc.org/ooxml/officeDocument/customXml" ds:itemID="{FE57AB07-7FBB-447C-9E21-6C5D8F647454}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>